--- a/sodium.xlsx
+++ b/sodium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9215"/>
+    <workbookView windowWidth="17028" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>Saturation pressure (Pa)</t>
   </si>
   <si>
-    <t>latent heat (kJ/kg)</t>
+    <t>Latent heat (kJ/kg)</t>
   </si>
   <si>
     <t>Liquid density (kg/m3)</t>
@@ -37,28 +37,7 @@
     <t>Vapor viscosity (N-s/m2)</t>
   </si>
   <si>
-    <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9.45"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ℓ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.45"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t> liquid thermal conductivity (W/m-K)</t>
-    </r>
+    <t>Liquid thermal conductivity (W/m-K)</t>
   </si>
   <si>
     <t>Vapor thermal conductivity (W/m-K)</t>
@@ -79,11 +58,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,61 +83,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,23 +198,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,56 +219,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="9.45"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -270,13 +242,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +314,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,151 +386,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +458,60 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,60 +551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -592,148 +564,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -744,10 +716,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -756,54 +728,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1075,16 +1047,16 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="9.33333333333333"/>
     <col min="5" max="5" width="9.33333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.6" spans="1:12">
+    <row r="1" ht="50.4" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,10 +1069,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1118,7 +1090,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1126,7 +1098,7 @@
       <c r="A2" s="1">
         <v>600</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>4.7</v>
       </c>
       <c r="C2" s="1">
@@ -1135,26 +1107,28 @@
       <c r="D2" s="1">
         <v>873.2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2.2e-5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.0003276</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1.48e-5</v>
       </c>
       <c r="H2" s="1">
         <v>75.17</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3">
+      <c r="I2" s="1">
+        <v>0.0277</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.1721</v>
       </c>
       <c r="K2" s="1">
         <v>1.3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>0.1793</v>
       </c>
     </row>
@@ -1162,7 +1136,7 @@
       <c r="A3" s="1">
         <v>700</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>95.1</v>
       </c>
       <c r="C3" s="1">
@@ -1171,13 +1145,13 @@
       <c r="D3" s="1">
         <v>849.4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.000396</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.000269</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1.66e-5</v>
       </c>
       <c r="H3" s="1">
@@ -1186,13 +1160,13 @@
       <c r="I3" s="1">
         <v>0.0277</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>0.1621</v>
       </c>
       <c r="K3" s="1">
         <v>1.27</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>0.2244</v>
       </c>
     </row>
@@ -1200,7 +1174,7 @@
       <c r="A4" s="1">
         <v>800</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>876</v>
       </c>
       <c r="C4" s="1">
@@ -1209,13 +1183,13 @@
       <c r="D4" s="1">
         <v>825.6</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.00327</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.0002298</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1.827e-5</v>
       </c>
       <c r="H4" s="1">
@@ -1224,13 +1198,13 @@
       <c r="I4" s="1">
         <v>0.0343</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0.1521</v>
       </c>
       <c r="K4" s="1">
         <v>1.26</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>0.2555</v>
       </c>
     </row>
@@ -1238,7 +1212,7 @@
       <c r="A5" s="1">
         <v>900</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>4876</v>
       </c>
       <c r="C5" s="1">
@@ -1247,13 +1221,13 @@
       <c r="D5" s="1">
         <v>801.8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.0165</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.0002018</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>2.01e-5</v>
       </c>
       <c r="H5" s="1">
@@ -1262,13 +1236,13 @@
       <c r="I5" s="1">
         <v>0.0406</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>0.1421</v>
       </c>
       <c r="K5" s="1">
         <v>1.25</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>0.27</v>
       </c>
     </row>
@@ -1276,7 +1250,7 @@
       <c r="A6" s="1">
         <v>1000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>19220</v>
       </c>
       <c r="C6" s="1">
@@ -1285,13 +1259,13 @@
       <c r="D6" s="1">
         <v>778</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.05998</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.0001809</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>2.211e-5</v>
       </c>
       <c r="H6" s="1">
@@ -1300,13 +1274,13 @@
       <c r="I6" s="1">
         <v>0.0455</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.1321</v>
       </c>
       <c r="K6" s="1">
         <v>1.26</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>0.2709</v>
       </c>
     </row>
@@ -1314,7 +1288,7 @@
       <c r="A7" s="1">
         <v>1100</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>58428</v>
       </c>
       <c r="C7" s="1">
@@ -1323,13 +1297,13 @@
       <c r="D7" s="1">
         <v>754.2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.1681</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.0001645</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>2.398e-5</v>
       </c>
       <c r="H7" s="1">
@@ -1338,13 +1312,13 @@
       <c r="I7" s="1">
         <v>0.0492</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.1221</v>
       </c>
       <c r="K7" s="1">
         <v>1.27</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>0.2632</v>
       </c>
     </row>
@@ -1352,7 +1326,7 @@
       <c r="A8" s="1">
         <v>1200</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>146540</v>
       </c>
       <c r="C8" s="1">
@@ -1361,13 +1335,13 @@
       <c r="D8" s="1">
         <v>730.4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.3966</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.0001514</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>2.577e-5</v>
       </c>
       <c r="H8" s="1">
@@ -1376,13 +1350,13 @@
       <c r="I8" s="1">
         <v>0.0522</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>0.1121</v>
       </c>
       <c r="K8" s="1">
         <v>1.29</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>0.2508</v>
       </c>
     </row>
@@ -1390,7 +1364,7 @@
       <c r="A9" s="1">
         <v>1300</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>316500</v>
       </c>
       <c r="C9" s="1">
@@ -1399,13 +1373,13 @@
       <c r="D9" s="1">
         <v>706.6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.8045</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.0001407</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>2.763e-5</v>
       </c>
       <c r="H9" s="1">
@@ -1414,11 +1388,13 @@
       <c r="I9" s="1">
         <v>0.0547</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>0.1021</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="3">
+      <c r="K9" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.2365</v>
       </c>
     </row>
@@ -1426,7 +1402,7 @@
       <c r="A10" s="1">
         <v>1400</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>609740</v>
       </c>
       <c r="C10" s="1">
@@ -1435,13 +1411,13 @@
       <c r="D10" s="1">
         <v>682.8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1.4592</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.0001317</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>2.938e-5</v>
       </c>
       <c r="H10" s="1">
@@ -1450,11 +1426,13 @@
       <c r="I10" s="1">
         <v>0.057</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.0921</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="3">
+      <c r="K10" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="L10" s="2">
         <v>0.2228</v>
       </c>
     </row>
@@ -1462,7 +1440,7 @@
       <c r="A11" s="1">
         <v>1500</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1071660</v>
       </c>
       <c r="C11" s="1">
@@ -1471,13 +1449,13 @@
       <c r="D11" s="1">
         <v>658</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>2.4248</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.000124</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>3.117e-5</v>
       </c>
       <c r="H11" s="1">
@@ -1486,11 +1464,13 @@
       <c r="I11" s="1">
         <v>0.0592</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.082</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="3">
+      <c r="K11" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="L11" s="2">
         <v>0.2095</v>
       </c>
     </row>
@@ -1498,7 +1478,7 @@
       <c r="A12" s="1">
         <v>1600</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1749590</v>
       </c>
       <c r="C12" s="1">
@@ -1507,30 +1487,34 @@
       <c r="D12" s="1">
         <v>635.2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>3.7509</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.0001176</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>3.281e-5</v>
       </c>
       <c r="H12" s="1">
         <v>28.5</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3">
+      <c r="I12" s="1">
+        <v>0.0592</v>
+      </c>
+      <c r="J12" s="2">
         <v>0.072</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>1.29</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>1700</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>2691990</v>
       </c>
       <c r="C13" s="1">
@@ -1539,30 +1523,34 @@
       <c r="D13" s="1">
         <v>611.4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>5.4824</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.0001117</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>3.449e-5</v>
       </c>
       <c r="H13" s="1">
         <v>24</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3">
+      <c r="I13" s="1">
+        <v>0.0592</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.062</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>1.29</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>1800</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>3935000</v>
       </c>
       <c r="C14" s="1">
@@ -1571,23 +1559,27 @@
       <c r="D14" s="1">
         <v>587.6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>7.6277</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.0001067</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>3.62e-5</v>
       </c>
       <c r="H14" s="1">
         <v>19</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3">
+      <c r="I14" s="1">
+        <v>0.0592</v>
+      </c>
+      <c r="J14" s="2">
         <v>0.052</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>1.29</v>
+      </c>
       <c r="L14" s="4"/>
     </row>
   </sheetData>
